--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -520,25 +520,25 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O2">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q2">
         <v>7</v>
@@ -547,22 +547,22 @@
         <v>7</v>
       </c>
       <c r="S2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V2">
         <v>7</v>
       </c>
       <c r="W2">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="X2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y2">
         <v>0</v>
@@ -597,37 +597,37 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R3">
         <v>7</v>
       </c>
       <c r="S3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U3">
         <v>6</v>
@@ -639,7 +639,7 @@
         <v>4</v>
       </c>
       <c r="X3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y3">
         <v>0</v>

--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -674,49 +674,49 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S4">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -751,40 +751,40 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P5">
         <v>8</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S5">
         <v>8</v>
       </c>
       <c r="T5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V5">
         <v>6</v>
@@ -793,7 +793,7 @@
         <v>4</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -828,49 +828,49 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N6">
+        <v>4</v>
+      </c>
+      <c r="O6">
         <v>5</v>
       </c>
-      <c r="O6">
-        <v>6</v>
-      </c>
       <c r="P6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R6">
         <v>8</v>
       </c>
       <c r="S6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -905,10 +905,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -917,40 +917,40 @@
         <v>3</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
@@ -982,10 +982,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>3</v>

--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -409,7 +409,7 @@
   <dimension ref="A1:Y8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,7 +532,7 @@
         <v>1</v>
       </c>
       <c r="N2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O2">
         <v>4</v>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="N3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O3">
         <v>4</v>

--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -1,25 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga.turan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+  <si>
+    <t>TIMEPRD</t>
+  </si>
+  <si>
+    <t>Random Forest</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
   <si>
     <t>Pazartesi</t>
   </si>
@@ -41,15 +45,12 @@
   <si>
     <t>Pazar</t>
   </si>
-  <si>
-    <t>Day/TIMEPRD</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -60,8 +61,10 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -110,14 +113,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -405,327 +400,205 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+    <row r="1" spans="1:25">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1">
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+    </row>
+    <row r="2" spans="1:25">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E2" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1">
+      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1">
+      <c r="G2" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1">
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="K2" s="1">
         <v>9</v>
       </c>
-      <c r="L1" s="1">
+      <c r="L2" s="1">
         <v>10</v>
       </c>
-      <c r="M1" s="1">
+      <c r="M2" s="1">
         <v>11</v>
       </c>
-      <c r="N1" s="1">
+      <c r="N2" s="1">
         <v>12</v>
       </c>
-      <c r="O1" s="1">
+      <c r="O2" s="1">
         <v>13</v>
       </c>
-      <c r="P1" s="1">
+      <c r="P2" s="1">
         <v>14</v>
       </c>
-      <c r="Q1" s="1">
+      <c r="Q2" s="1">
         <v>15</v>
       </c>
-      <c r="R1" s="1">
+      <c r="R2" s="1">
         <v>16</v>
       </c>
-      <c r="S1" s="1">
+      <c r="S2" s="1">
         <v>17</v>
       </c>
-      <c r="T1" s="1">
+      <c r="T2" s="1">
         <v>18</v>
       </c>
-      <c r="U1" s="1">
+      <c r="U2" s="1">
         <v>19</v>
       </c>
-      <c r="V1" s="1">
+      <c r="V2" s="1">
         <v>20</v>
       </c>
-      <c r="W1" s="1">
+      <c r="W2" s="1">
         <v>21</v>
       </c>
-      <c r="X1" s="1">
+      <c r="X2" s="1">
         <v>22</v>
       </c>
-      <c r="Y1" s="1">
+      <c r="Y2" s="1">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
+    <row r="3" spans="1:25">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="O2">
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>6</v>
+      </c>
+      <c r="O4">
+        <v>7</v>
+      </c>
+      <c r="P4">
+        <v>8</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <v>9</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>6</v>
+      </c>
+      <c r="X4">
+        <v>2</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="P2">
-        <v>7</v>
-      </c>
-      <c r="Q2">
-        <v>7</v>
-      </c>
-      <c r="R2">
-        <v>7</v>
-      </c>
-      <c r="S2">
-        <v>7</v>
-      </c>
-      <c r="T2">
-        <v>7</v>
-      </c>
-      <c r="U2">
-        <v>7</v>
-      </c>
-      <c r="V2">
-        <v>7</v>
-      </c>
-      <c r="W2">
-        <v>7</v>
-      </c>
-      <c r="X2">
-        <v>3</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>1</v>
-      </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-      <c r="N3">
-        <v>2</v>
-      </c>
-      <c r="O3">
-        <v>4</v>
-      </c>
-      <c r="P3">
-        <v>7</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
-      </c>
-      <c r="R3">
-        <v>7</v>
-      </c>
-      <c r="S3">
-        <v>6</v>
-      </c>
-      <c r="T3">
-        <v>6</v>
-      </c>
-      <c r="U3">
-        <v>6</v>
-      </c>
-      <c r="V3">
-        <v>6</v>
-      </c>
-      <c r="W3">
-        <v>4</v>
-      </c>
-      <c r="X3">
-        <v>3</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>2</v>
-      </c>
-      <c r="M4">
-        <v>2</v>
-      </c>
-      <c r="N4">
-        <v>4</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>8</v>
-      </c>
-      <c r="Q4">
-        <v>8</v>
-      </c>
-      <c r="R4">
-        <v>8</v>
-      </c>
-      <c r="S4">
-        <v>8</v>
-      </c>
-      <c r="T4">
-        <v>6</v>
-      </c>
-      <c r="U4">
-        <v>6</v>
-      </c>
-      <c r="V4">
-        <v>4</v>
-      </c>
-      <c r="W4">
-        <v>4</v>
-      </c>
-      <c r="X4">
-        <v>4</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
       <c r="B5">
         <v>0</v>
       </c>
@@ -751,37 +624,37 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
         <v>2</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U5">
         <v>6</v>
@@ -793,92 +666,92 @@
         <v>4</v>
       </c>
       <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
         <v>4</v>
       </c>
-      <c r="Y5">
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>9</v>
+      </c>
+      <c r="U6">
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>5</v>
-      </c>
-      <c r="P6">
-        <v>8</v>
-      </c>
-      <c r="Q6">
-        <v>8</v>
-      </c>
-      <c r="R6">
-        <v>8</v>
-      </c>
-      <c r="S6">
-        <v>8</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <v>6</v>
-      </c>
-      <c r="V6">
-        <v>6</v>
-      </c>
-      <c r="W6">
-        <v>4</v>
-      </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -905,25 +778,25 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L7">
         <v>3</v>
       </c>
       <c r="M7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q7">
         <v>9</v>
@@ -938,7 +811,7 @@
         <v>8</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V7">
         <v>6</v>
@@ -947,15 +820,15 @@
         <v>4</v>
       </c>
       <c r="X7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y7">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -982,22 +855,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>3</v>
       </c>
       <c r="M8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N8">
         <v>5</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P8">
         <v>7</v>
@@ -1012,29 +885,182 @@
         <v>7</v>
       </c>
       <c r="T8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V8">
         <v>7</v>
       </c>
       <c r="W8">
+        <v>6</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>3</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>7</v>
+      </c>
+      <c r="P9">
+        <v>7</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
+        <v>6</v>
+      </c>
+      <c r="X9">
+        <v>2</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
         <v>5</v>
       </c>
-      <c r="X8">
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>7</v>
+      </c>
+      <c r="Q10">
+        <v>7</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10">
+        <v>7</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
         <v>2</v>
       </c>
-      <c r="Y8">
+      <c r="Y10">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K0000FFGizlilik Sınıflandırması : Hizmete Özel</oddFooter>
-  </headerFooter>
+  <mergeCells count="1">
+    <mergeCell ref="B1:Y1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga.turan\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -49,8 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -113,6 +121,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +207,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +242,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,43 +418,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O9" sqref="O9"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,12 +533,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -547,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
         <v>3</v>
@@ -595,7 +615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -624,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -672,7 +692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -701,10 +721,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>4</v>
@@ -749,7 +769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
         <v>3</v>
@@ -826,7 +846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>3</v>
@@ -903,7 +923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -932,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>3</v>
@@ -980,7 +1000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1009,10 +1029,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10">
         <v>3</v>
@@ -1062,5 +1082,9 @@
     <mergeCell ref="B1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K0000FFGizlilik Sınıflandırması : Hizmete Özel</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="W15" sqref="W15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,19 +573,19 @@
         <v>1</v>
       </c>
       <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>3</v>
-      </c>
-      <c r="N4">
-        <v>6</v>
-      </c>
       <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
         <v>7</v>
-      </c>
-      <c r="P4">
-        <v>8</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -594,22 +594,22 @@
         <v>7</v>
       </c>
       <c r="S4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -653,28 +653,28 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <v>6</v>
@@ -686,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -727,43 +727,43 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -804,34 +804,34 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P7">
         <v>8</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S7">
         <v>8</v>
       </c>
       <c r="T7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V7">
         <v>6</v>
@@ -840,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -881,43 +881,43 @@
         <v>1</v>
       </c>
       <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>8</v>
+      </c>
+      <c r="Q8">
+        <v>8</v>
+      </c>
+      <c r="R8">
+        <v>8</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>6</v>
+      </c>
+      <c r="U8">
+        <v>6</v>
+      </c>
+      <c r="V8">
+        <v>6</v>
+      </c>
+      <c r="W8">
+        <v>4</v>
+      </c>
+      <c r="X8">
         <v>3</v>
-      </c>
-      <c r="M8">
-        <v>3</v>
-      </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-      <c r="R8">
-        <v>8</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
-      </c>
-      <c r="T8">
-        <v>8</v>
-      </c>
-      <c r="U8">
-        <v>8</v>
-      </c>
-      <c r="V8">
-        <v>7</v>
-      </c>
-      <c r="W8">
-        <v>6</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -964,37 +964,37 @@
         <v>3</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1038,40 +1038,40 @@
         <v>3</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>5</v>
       </c>
       <c r="O10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y10">
         <v>0</v>

--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W15" sqref="W15"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,19 +573,19 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -594,22 +594,22 @@
         <v>7</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U4">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="V4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -653,28 +653,28 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U5">
         <v>6</v>
@@ -686,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -727,43 +727,43 @@
         <v>1</v>
       </c>
       <c r="L6">
+        <v>4</v>
+      </c>
+      <c r="M6">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>9</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>9</v>
+      </c>
+      <c r="U6">
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
         <v>2</v>
-      </c>
-      <c r="M6">
-        <v>2</v>
-      </c>
-      <c r="N6">
-        <v>4</v>
-      </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>8</v>
-      </c>
-      <c r="Q6">
-        <v>8</v>
-      </c>
-      <c r="R6">
-        <v>8</v>
-      </c>
-      <c r="S6">
-        <v>8</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <v>6</v>
-      </c>
-      <c r="V6">
-        <v>4</v>
-      </c>
-      <c r="W6">
-        <v>4</v>
-      </c>
-      <c r="X6">
-        <v>4</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -804,34 +804,34 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P7">
         <v>8</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S7">
         <v>8</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V7">
         <v>6</v>
@@ -840,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="X7">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -881,43 +881,43 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="P8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R8">
         <v>8</v>
       </c>
       <c r="S8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="V8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W8">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -964,37 +964,37 @@
         <v>3</v>
       </c>
       <c r="N9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W9">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1038,40 +1038,40 @@
         <v>3</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10">
         <v>5</v>
       </c>
       <c r="O10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="P10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T10">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Y10">
         <v>0</v>

--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -422,7 +422,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="T17" sqref="T17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,19 +573,19 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
         <v>7</v>
-      </c>
-      <c r="P4">
-        <v>8</v>
       </c>
       <c r="Q4">
         <v>7</v>
@@ -594,25 +594,25 @@
         <v>7</v>
       </c>
       <c r="S4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y4">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
@@ -653,28 +653,28 @@
         <v>2</v>
       </c>
       <c r="M5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U5">
         <v>6</v>
@@ -686,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -727,43 +727,43 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="W6">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -804,34 +804,34 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="P7">
         <v>8</v>
       </c>
       <c r="Q7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="S7">
         <v>8</v>
       </c>
       <c r="T7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V7">
         <v>6</v>
@@ -840,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="X7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -881,43 +881,43 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
         <v>5</v>
       </c>
-      <c r="O8">
-        <v>6</v>
-      </c>
       <c r="P8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R8">
         <v>8</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U8">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="V8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W8">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -964,37 +964,37 @@
         <v>3</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="O9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1038,40 +1038,40 @@
         <v>3</v>
       </c>
       <c r="M10">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N10">
         <v>5</v>
       </c>
       <c r="O10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="Q10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="R10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="W10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="X10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Y10">
         <v>0</v>

--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T17" sqref="T17"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,7 +612,7 @@
         <v>3</v>
       </c>
       <c r="Y4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">

--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -422,7 +422,7 @@
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,28 +650,28 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O5">
         <v>4</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T5">
         <v>6</v>
@@ -686,7 +686,7 @@
         <v>4</v>
       </c>
       <c r="X5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -727,28 +727,28 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O6">
         <v>4</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T6">
         <v>6</v>
@@ -757,13 +757,13 @@
         <v>6</v>
       </c>
       <c r="V6">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="W6">
         <v>4</v>
       </c>
       <c r="X6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -804,28 +804,28 @@
         <v>1</v>
       </c>
       <c r="L7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O7">
         <v>4</v>
       </c>
       <c r="P7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T7">
         <v>6</v>
@@ -840,7 +840,7 @@
         <v>4</v>
       </c>
       <c r="X7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -902,10 +902,10 @@
         <v>8</v>
       </c>
       <c r="S8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U8">
         <v>6</v>
@@ -967,7 +967,7 @@
         <v>5</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P9">
         <v>9</v>
@@ -994,7 +994,7 @@
         <v>4</v>
       </c>
       <c r="X9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1038,7 +1038,7 @@
         <v>3</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10">
         <v>5</v>
@@ -1065,7 +1065,7 @@
         <v>6</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W10">
         <v>4</v>

--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga.turan\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -54,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,11 +102,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -121,14 +113,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -175,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,10 +191,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,7 +225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,45 +400,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,12 +513,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -567,55 +547,55 @@
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="M4">
+        <v>4</v>
+      </c>
+      <c r="N4">
+        <v>5</v>
+      </c>
+      <c r="O4">
+        <v>6</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>8</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <v>8</v>
+      </c>
+      <c r="V4">
+        <v>7</v>
+      </c>
+      <c r="W4">
+        <v>6</v>
+      </c>
+      <c r="X4">
         <v>1</v>
       </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>3</v>
-      </c>
-      <c r="O4">
-        <v>4</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>7</v>
-      </c>
-      <c r="R4">
-        <v>7</v>
-      </c>
-      <c r="S4">
-        <v>6</v>
-      </c>
-      <c r="T4">
-        <v>6</v>
-      </c>
-      <c r="U4">
-        <v>6</v>
-      </c>
-      <c r="V4">
-        <v>6</v>
-      </c>
-      <c r="W4">
-        <v>4</v>
-      </c>
-      <c r="X4">
-        <v>3</v>
-      </c>
       <c r="Y4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -644,28 +624,28 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R5">
         <v>7</v>
@@ -677,7 +657,7 @@
         <v>6</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V5">
         <v>6</v>
@@ -686,13 +666,13 @@
         <v>4</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -721,117 +701,117 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N6">
+        <v>7</v>
+      </c>
+      <c r="O6">
+        <v>8</v>
+      </c>
+      <c r="P6">
+        <v>8</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>9</v>
+      </c>
+      <c r="S6">
+        <v>9</v>
+      </c>
+      <c r="T6">
+        <v>9</v>
+      </c>
+      <c r="U6">
+        <v>9</v>
+      </c>
+      <c r="V6">
+        <v>7</v>
+      </c>
+      <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
         <v>3</v>
       </c>
-      <c r="O6">
-        <v>4</v>
-      </c>
-      <c r="P6">
-        <v>7</v>
-      </c>
-      <c r="Q6">
-        <v>7</v>
-      </c>
-      <c r="R6">
-        <v>7</v>
-      </c>
-      <c r="S6">
-        <v>6</v>
-      </c>
-      <c r="T6">
-        <v>6</v>
-      </c>
-      <c r="U6">
-        <v>6</v>
-      </c>
-      <c r="V6">
-        <v>6</v>
-      </c>
-      <c r="W6">
-        <v>4</v>
-      </c>
-      <c r="X6">
-        <v>3</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
       <c r="M7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N7">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O7">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="P7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Q7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T7">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V7">
         <v>6</v>
@@ -840,167 +820,167 @@
         <v>4</v>
       </c>
       <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="Y7">
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>7</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8">
+        <v>7</v>
+      </c>
+      <c r="R8">
+        <v>7</v>
+      </c>
+      <c r="S8">
+        <v>7</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>8</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>1</v>
+      </c>
+      <c r="Y8">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
+    <row r="9" spans="1:25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
         <v>2</v>
-      </c>
-      <c r="M8">
-        <v>2</v>
-      </c>
-      <c r="N8">
-        <v>4</v>
-      </c>
-      <c r="O8">
-        <v>5</v>
-      </c>
-      <c r="P8">
-        <v>8</v>
-      </c>
-      <c r="Q8">
-        <v>8</v>
-      </c>
-      <c r="R8">
-        <v>8</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
-      </c>
-      <c r="T8">
-        <v>7</v>
-      </c>
-      <c r="U8">
-        <v>6</v>
-      </c>
-      <c r="V8">
-        <v>6</v>
-      </c>
-      <c r="W8">
-        <v>4</v>
-      </c>
-      <c r="X8">
-        <v>3</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>3</v>
       </c>
       <c r="M9">
         <v>3</v>
       </c>
       <c r="N9">
+        <v>6</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>6</v>
+      </c>
+      <c r="Q9">
+        <v>7</v>
+      </c>
+      <c r="R9">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <v>7</v>
+      </c>
+      <c r="T9">
+        <v>7</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9">
+        <v>7</v>
+      </c>
+      <c r="W9">
         <v>5</v>
       </c>
-      <c r="O9">
-        <v>5</v>
-      </c>
-      <c r="P9">
-        <v>9</v>
-      </c>
-      <c r="Q9">
-        <v>9</v>
-      </c>
-      <c r="R9">
-        <v>9</v>
-      </c>
-      <c r="S9">
-        <v>8</v>
-      </c>
-      <c r="T9">
-        <v>8</v>
-      </c>
-      <c r="U9">
-        <v>6</v>
-      </c>
-      <c r="V9">
-        <v>6</v>
-      </c>
-      <c r="W9">
-        <v>4</v>
-      </c>
       <c r="X9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1029,49 +1009,49 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
+        <v>3</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>6</v>
+      </c>
+      <c r="P10">
+        <v>6</v>
+      </c>
+      <c r="Q10">
+        <v>6</v>
+      </c>
+      <c r="R10">
+        <v>7</v>
+      </c>
+      <c r="S10">
+        <v>7</v>
+      </c>
+      <c r="T10">
+        <v>7</v>
+      </c>
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>5</v>
+      </c>
+      <c r="X10">
         <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>3</v>
-      </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
-      <c r="N10">
-        <v>5</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>9</v>
-      </c>
-      <c r="Q10">
-        <v>9</v>
-      </c>
-      <c r="R10">
-        <v>9</v>
-      </c>
-      <c r="S10">
-        <v>8</v>
-      </c>
-      <c r="T10">
-        <v>8</v>
-      </c>
-      <c r="U10">
-        <v>6</v>
-      </c>
-      <c r="V10">
-        <v>5</v>
-      </c>
-      <c r="W10">
-        <v>4</v>
-      </c>
-      <c r="X10">
-        <v>3</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1082,9 +1062,5 @@
     <mergeCell ref="B1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K0000FFGizlilik Sınıflandırması : Hizmete Özel</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga.turan\OneDrive - DİVAN TURİZM İŞLETMELERİ A.Ş\Desktop\smartshiftplan1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -49,8 +54,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -102,8 +107,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -113,6 +121,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -159,7 +175,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -191,9 +207,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -225,6 +242,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -400,43 +418,45 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-      <c r="O1" s="1"/>
-      <c r="P1" s="1"/>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-      <c r="S1" s="1"/>
-      <c r="T1" s="1"/>
-      <c r="U1" s="1"/>
-      <c r="V1" s="1"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-      <c r="Y1" s="1"/>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
     </row>
-    <row r="2" spans="1:25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,12 +533,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -547,55 +567,55 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <v>4</v>
+      </c>
+      <c r="P4">
+        <v>7</v>
+      </c>
+      <c r="Q4">
+        <v>7</v>
+      </c>
+      <c r="R4">
+        <v>7</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>6</v>
+      </c>
+      <c r="U4">
+        <v>5</v>
+      </c>
+      <c r="V4">
+        <v>5</v>
+      </c>
+      <c r="W4">
         <v>3</v>
       </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
-      <c r="O4">
-        <v>6</v>
-      </c>
-      <c r="P4">
-        <v>7</v>
-      </c>
-      <c r="Q4">
-        <v>7</v>
-      </c>
-      <c r="R4">
-        <v>8</v>
-      </c>
-      <c r="S4">
-        <v>8</v>
-      </c>
-      <c r="T4">
-        <v>8</v>
-      </c>
-      <c r="U4">
-        <v>8</v>
-      </c>
-      <c r="V4">
-        <v>7</v>
-      </c>
-      <c r="W4">
-        <v>6</v>
-      </c>
       <c r="X4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -624,10 +644,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5">
         <v>2</v>
@@ -636,28 +656,28 @@
         <v>2</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O5">
         <v>5</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="R5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="U5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V5">
         <v>6</v>
@@ -666,13 +686,13 @@
         <v>4</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -701,25 +721,25 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N6">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="O6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -728,28 +748,28 @@
         <v>9</v>
       </c>
       <c r="S6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="T6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="V6">
         <v>7</v>
       </c>
       <c r="W6">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Y6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -778,55 +798,55 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>8</v>
+      </c>
+      <c r="Q7">
+        <v>8</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>7</v>
+      </c>
+      <c r="T7">
+        <v>7</v>
+      </c>
+      <c r="U7">
+        <v>6</v>
+      </c>
+      <c r="V7">
+        <v>6</v>
+      </c>
+      <c r="W7">
+        <v>4</v>
+      </c>
+      <c r="X7">
         <v>3</v>
       </c>
-      <c r="M7">
-        <v>5</v>
-      </c>
-      <c r="N7">
-        <v>6</v>
-      </c>
-      <c r="O7">
-        <v>7</v>
-      </c>
-      <c r="P7">
-        <v>8</v>
-      </c>
-      <c r="Q7">
-        <v>8</v>
-      </c>
-      <c r="R7">
-        <v>9</v>
-      </c>
-      <c r="S7">
-        <v>8</v>
-      </c>
-      <c r="T7">
-        <v>8</v>
-      </c>
-      <c r="U7">
-        <v>7</v>
-      </c>
-      <c r="V7">
-        <v>6</v>
-      </c>
-      <c r="W7">
-        <v>4</v>
-      </c>
-      <c r="X7">
-        <v>2</v>
-      </c>
       <c r="Y7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -855,203 +875,203 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
+        <v>2</v>
+      </c>
+      <c r="M8">
+        <v>2</v>
+      </c>
+      <c r="N8">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <v>5</v>
+      </c>
+      <c r="P8">
+        <v>9</v>
+      </c>
+      <c r="Q8">
+        <v>9</v>
+      </c>
+      <c r="R8">
+        <v>9</v>
+      </c>
+      <c r="S8">
+        <v>8</v>
+      </c>
+      <c r="T8">
+        <v>8</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
+      </c>
+      <c r="V8">
+        <v>7</v>
+      </c>
+      <c r="W8">
+        <v>5</v>
+      </c>
+      <c r="X8">
+        <v>4</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>3</v>
       </c>
-      <c r="M8">
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>6</v>
+      </c>
+      <c r="P9">
+        <v>10</v>
+      </c>
+      <c r="Q9">
+        <v>10</v>
+      </c>
+      <c r="R9">
+        <v>10</v>
+      </c>
+      <c r="S9">
+        <v>9</v>
+      </c>
+      <c r="T9">
+        <v>9</v>
+      </c>
+      <c r="U9">
+        <v>7</v>
+      </c>
+      <c r="V9">
+        <v>6</v>
+      </c>
+      <c r="W9">
+        <v>5</v>
+      </c>
+      <c r="X9">
+        <v>4</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>3</v>
       </c>
-      <c r="N8">
-        <v>5</v>
-      </c>
-      <c r="O8">
-        <v>7</v>
-      </c>
-      <c r="P8">
-        <v>7</v>
-      </c>
-      <c r="Q8">
-        <v>7</v>
-      </c>
-      <c r="R8">
-        <v>7</v>
-      </c>
-      <c r="S8">
-        <v>7</v>
-      </c>
-      <c r="T8">
-        <v>8</v>
-      </c>
-      <c r="U8">
-        <v>8</v>
-      </c>
-      <c r="V8">
-        <v>7</v>
-      </c>
-      <c r="W8">
-        <v>5</v>
-      </c>
-      <c r="X8">
-        <v>1</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>2</v>
-      </c>
-      <c r="M9">
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>6</v>
+      </c>
+      <c r="O10">
+        <v>7</v>
+      </c>
+      <c r="P10">
+        <v>10</v>
+      </c>
+      <c r="Q10">
+        <v>10</v>
+      </c>
+      <c r="R10">
+        <v>10</v>
+      </c>
+      <c r="S10">
+        <v>9</v>
+      </c>
+      <c r="T10">
+        <v>9</v>
+      </c>
+      <c r="U10">
+        <v>7</v>
+      </c>
+      <c r="V10">
+        <v>6</v>
+      </c>
+      <c r="W10">
+        <v>4</v>
+      </c>
+      <c r="X10">
         <v>3</v>
-      </c>
-      <c r="N9">
-        <v>6</v>
-      </c>
-      <c r="O9">
-        <v>6</v>
-      </c>
-      <c r="P9">
-        <v>6</v>
-      </c>
-      <c r="Q9">
-        <v>7</v>
-      </c>
-      <c r="R9">
-        <v>7</v>
-      </c>
-      <c r="S9">
-        <v>7</v>
-      </c>
-      <c r="T9">
-        <v>7</v>
-      </c>
-      <c r="U9">
-        <v>7</v>
-      </c>
-      <c r="V9">
-        <v>7</v>
-      </c>
-      <c r="W9">
-        <v>5</v>
-      </c>
-      <c r="X9">
-        <v>1</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>2</v>
-      </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>6</v>
-      </c>
-      <c r="O10">
-        <v>6</v>
-      </c>
-      <c r="P10">
-        <v>6</v>
-      </c>
-      <c r="Q10">
-        <v>6</v>
-      </c>
-      <c r="R10">
-        <v>7</v>
-      </c>
-      <c r="S10">
-        <v>7</v>
-      </c>
-      <c r="T10">
-        <v>7</v>
-      </c>
-      <c r="U10">
-        <v>7</v>
-      </c>
-      <c r="V10">
-        <v>6</v>
-      </c>
-      <c r="W10">
-        <v>5</v>
-      </c>
-      <c r="X10">
-        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1062,5 +1082,9 @@
     <mergeCell ref="B1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K0000FFGizlilik Sınıflandırması : Hizmete Özel</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tolga.turan\OneDrive - DİVAN TURİZM İŞLETMELERİ A.Ş\Desktop\smartshiftplan1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -54,8 +49,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,11 +102,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -121,14 +113,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -175,7 +159,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -207,10 +191,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -242,7 +225,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -418,45 +400,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25">
       <c r="A1" s="1"/>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -533,12 +513,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -573,16 +553,16 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P4">
         <v>7</v>
@@ -591,31 +571,31 @@
         <v>7</v>
       </c>
       <c r="R4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="S4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="T4">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="U4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="V4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="W4">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="X4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
@@ -656,28 +636,28 @@
         <v>2</v>
       </c>
       <c r="N5">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O5">
         <v>5</v>
       </c>
       <c r="P5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="R5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="S5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="U5">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V5">
         <v>6</v>
@@ -686,13 +666,13 @@
         <v>4</v>
       </c>
       <c r="X5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -727,19 +707,19 @@
         <v>1</v>
       </c>
       <c r="L6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N6">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="O6">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -748,72 +728,72 @@
         <v>9</v>
       </c>
       <c r="S6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U6">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="V6">
         <v>7</v>
       </c>
       <c r="W6">
+        <v>6</v>
+      </c>
+      <c r="X6">
+        <v>2</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>3</v>
+      </c>
+      <c r="M7">
         <v>5</v>
       </c>
-      <c r="X6">
-        <v>4</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>2</v>
-      </c>
-      <c r="M7">
-        <v>2</v>
-      </c>
       <c r="N7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="O7">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P7">
         <v>8</v>
@@ -822,16 +802,16 @@
         <v>8</v>
       </c>
       <c r="R7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="S7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="U7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V7">
         <v>6</v>
@@ -840,75 +820,75 @@
         <v>4</v>
       </c>
       <c r="X7">
+        <v>2</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>3</v>
       </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>2</v>
-      </c>
       <c r="M8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O8">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="P8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="Q8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R8">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T8">
         <v>8</v>
       </c>
       <c r="U8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="V8">
         <v>7</v>
@@ -917,13 +897,13 @@
         <v>5</v>
       </c>
       <c r="X8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
@@ -958,49 +938,49 @@
         <v>1</v>
       </c>
       <c r="L9">
+        <v>2</v>
+      </c>
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="M9">
-        <v>4</v>
-      </c>
       <c r="N9">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="O9">
         <v>6</v>
       </c>
       <c r="P9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="R9">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U9">
         <v>7</v>
       </c>
       <c r="V9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W9">
         <v>5</v>
       </c>
       <c r="X9">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1035,31 +1015,31 @@
         <v>1</v>
       </c>
       <c r="L10">
+        <v>2</v>
+      </c>
+      <c r="M10">
         <v>3</v>
       </c>
-      <c r="M10">
-        <v>4</v>
-      </c>
       <c r="N10">
         <v>6</v>
       </c>
       <c r="O10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="P10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="Q10">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="R10">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="S10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T10">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U10">
         <v>7</v>
@@ -1068,10 +1048,10 @@
         <v>6</v>
       </c>
       <c r="W10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="X10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Y10">
         <v>0</v>
@@ -1082,9 +1062,5 @@
     <mergeCell ref="B1:Y1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <headerFooter>
-    <oddFooter>&amp;L&amp;1#&amp;"Calibri"&amp;10&amp;K0000FFGizlilik Sınıflandırması : Hizmete Özel</oddFooter>
-  </headerFooter>
 </worksheet>
 </file>
--- a/7_gunluk_vardiya_plani.xlsx
+++ b/7_gunluk_vardiya_plani.xlsx
@@ -19,7 +19,7 @@
     <t>TIMEPRD</t>
   </si>
   <si>
-    <t>Random Forest</t>
+    <t>Decision Tree</t>
   </si>
   <si>
     <t>Day</t>
@@ -553,43 +553,43 @@
         <v>1</v>
       </c>
       <c r="L4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M4">
+        <v>2</v>
+      </c>
+      <c r="N4">
         <v>4</v>
       </c>
-      <c r="N4">
-        <v>5</v>
-      </c>
       <c r="O4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="P4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="T4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="U4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="X4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y4">
         <v>0</v>
@@ -630,43 +630,43 @@
         <v>1</v>
       </c>
       <c r="L5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O5">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="R5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="S5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="T5">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="U5">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V5">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y5">
         <v>0</v>
@@ -707,43 +707,43 @@
         <v>1</v>
       </c>
       <c r="L6">
+        <v>3</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="N6">
         <v>4</v>
       </c>
-      <c r="M6">
-        <v>5</v>
-      </c>
-      <c r="N6">
-        <v>7</v>
-      </c>
       <c r="O6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P6">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="R6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="T6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="U6">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="V6">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W6">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y6">
         <v>0</v>
@@ -787,40 +787,40 @@
         <v>3</v>
       </c>
       <c r="M7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="R7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="S7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="T7">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="U7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="W7">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="X7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y7">
         <v>0</v>
@@ -861,43 +861,43 @@
         <v>1</v>
       </c>
       <c r="L8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="O8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="P8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="U8">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="V8">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W8">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>1</v>
       </c>
       <c r="L9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N9">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P9">
         <v>6</v>
       </c>
       <c r="Q9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="R9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S9">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="W9">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N10">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O10">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P10">
         <v>6</v>
@@ -1033,25 +1033,25 @@
         <v>6</v>
       </c>
       <c r="R10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="S10">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="T10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="U10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="V10">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="W10">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="X10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y10">
         <v>0</v>
